--- a/Estimators/Andrei Polin/Price File Additions.xlsx
+++ b/Estimators/Andrei Polin/Price File Additions.xlsx
@@ -1,67 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Automation\Keno-bi\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Automation\Keno-bi\Estimators\Andrei Polin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB0A33-6A53-4113-89D3-080BBDF2B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BFCC0-F299-41D9-9282-D690E65FE42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>WUK Code</t>
-  </si>
-  <si>
-    <t>Fixed Price</t>
+    <t>7480K37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,10 +341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,16 +358,59 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="B1">
+        <v>111111</v>
+      </c>
+      <c r="C1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7777777</v>
+      </c>
+      <c r="B2">
+        <v>222222</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>555555</v>
+      </c>
+      <c r="C3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>555555</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>515151</v>
+      </c>
+      <c r="C5">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Estimators/Andrei Polin/Price File Additions.xlsx
+++ b/Estimators/Andrei Polin/Price File Additions.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Automation\Keno-bi\Estimators\Andrei Polin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BFCC0-F299-41D9-9282-D690E65FE42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$C$12364</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
-  <si>
-    <t>7480K37</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,78 +387,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>111111</v>
-      </c>
-      <c r="C1">
-        <v>99</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>WukCode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7777777</v>
-      </c>
-      <c r="B2">
-        <v>222222</v>
-      </c>
-      <c r="C2">
-        <v>99</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7480K38</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>G75967</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>555555</v>
-      </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>555555</v>
-      </c>
-      <c r="C4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>515151</v>
-      </c>
-      <c r="C5">
-        <v>99</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7480K99</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S25149</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103.79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C12364"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>